--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4D104F-931D-4C88-8B5A-73D637FDD647}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84822F73-0421-4832-9BCE-F28FDB78F381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -44,44 +44,14 @@
   <si>
     <t>Device (sec)</t>
   </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.476</t>
-  </si>
-  <si>
-    <t>0.431</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>0.443</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.437</t>
-  </si>
-  <si>
-    <t>2.452</t>
-  </si>
-  <si>
-    <t>1.755</t>
-  </si>
-  <si>
-    <t>1.863</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -243,7 +213,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -253,6 +223,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -262,9 +235,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -283,8 +253,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -565,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +547,7 @@
     <col min="1" max="1" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="6"/>
       <c r="B1" s="2" t="s">
         <v>3</v>
@@ -594,8 +565,8 @@
       <c r="I1" s="15"/>
       <c r="J1" s="16"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
@@ -624,176 +595,195 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="17"/>
+      <c r="C3" s="17">
+        <v>0.497</v>
+      </c>
+      <c r="D3" s="17">
+        <v>2.452</v>
+      </c>
+      <c r="E3" s="17">
+        <v>4.2409999999999997</v>
+      </c>
       <c r="F3" s="17"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17"/>
+      <c r="C4" s="17">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3.9940000000000002</v>
+      </c>
       <c r="F4" s="17"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="8"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>16</v>
+      <c r="C5" s="17">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1.863</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="9"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="17"/>
+      <c r="C6" s="17">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1.77</v>
+      </c>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="9"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="17"/>
+      <c r="C7" s="17">
+        <v>0.435</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1.746</v>
+      </c>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="N7" s="18"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="17"/>
+      <c r="C8" s="17">
+        <v>0.443</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1.861</v>
+      </c>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="9"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="17"/>
+      <c r="C9" s="17">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1.724</v>
+      </c>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="9"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="17"/>
+      <c r="C10" s="17">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1.8180000000000001</v>
+      </c>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="9"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="17"/>
+      <c r="C11" s="17">
+        <v>0.433</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1.7649999999999999</v>
+      </c>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="9"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="17"/>
+      <c r="C12" s="17">
+        <v>0.437</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1.712</v>
+      </c>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4">
@@ -803,13 +793,13 @@
       <c r="D13" s="17"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="9"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -817,13 +807,13 @@
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -831,13 +821,13 @@
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
       <c r="B16" s="4">
         <v>4</v>
       </c>
@@ -845,13 +835,13 @@
       <c r="D16" s="17"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -859,13 +849,13 @@
       <c r="D17" s="17"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4">
         <v>6</v>
       </c>
@@ -873,13 +863,13 @@
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
+      <c r="A19" s="9"/>
       <c r="B19" s="4">
         <v>7</v>
       </c>
@@ -887,13 +877,13 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="4">
         <v>8</v>
       </c>
@@ -901,13 +891,13 @@
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="4">
         <v>9</v>
       </c>
@@ -915,13 +905,13 @@
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="9"/>
+      <c r="A22" s="10"/>
       <c r="B22" s="4">
         <v>10</v>
       </c>
@@ -929,10 +919,10 @@
       <c r="D22" s="17"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84822F73-0421-4832-9BCE-F28FDB78F381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FDAAC9-7017-4BCD-8034-56C6950D1715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -44,6 +44,18 @@
   <si>
     <t>Device (sec)</t>
   </si>
+  <si>
+    <t>200 iterations</t>
+  </si>
+  <si>
+    <t>0.061</t>
+  </si>
+  <si>
+    <t>0.060</t>
+  </si>
+  <si>
+    <t>0.059</t>
+  </si>
 </sst>
 </file>
 
@@ -52,7 +64,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,8 +91,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,6 +132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -222,40 +249,42 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -539,7 +568,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -548,25 +577,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="6"/>
+      <c r="A1" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3"/>
@@ -596,333 +627,389 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
         <v>1</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="7">
         <v>0.497</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="7">
         <v>2.452</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="7">
         <v>4.2409999999999997</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="F3" s="7">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="9"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="7">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="7">
         <v>1.7549999999999999</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="7">
         <v>3.9940000000000002</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="F4" s="7">
+        <v>6.9649999999999999</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="7">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="7">
         <v>1.863</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="E5" s="7">
+        <v>3.9289999999999998</v>
+      </c>
+      <c r="F5" s="7">
+        <v>7.1239999999999997</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="7">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="7">
         <v>1.77</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="E6" s="7">
+        <v>3.9260000000000002</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="7">
         <v>0.435</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="7">
         <v>1.746</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="N7" s="18"/>
+      <c r="E7" s="7">
+        <v>3.8759999999999999</v>
+      </c>
+      <c r="F7" s="7">
+        <v>6.9580000000000002</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="7">
         <v>0.443</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="7">
         <v>1.861</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
+      <c r="E8" s="7">
+        <v>3.96</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6.9450000000000003</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="9"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="7">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="7">
         <v>1.724</v>
       </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
+      <c r="E9" s="7">
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="F9" s="7">
+        <v>6.9539999999999997</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="9"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="7">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="7">
         <v>1.8180000000000001</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
+      <c r="E10" s="7">
+        <v>3.9359999999999999</v>
+      </c>
+      <c r="F10" s="7">
+        <v>7.0460000000000003</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="9"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="7">
         <v>0.433</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="7">
         <v>1.7649999999999999</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
+      <c r="E11" s="7">
+        <v>3.8839999999999999</v>
+      </c>
+      <c r="F11" s="7">
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="7">
         <v>0.437</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="7">
         <v>1.712</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
+      <c r="E12" s="7">
+        <v>3.9279999999999999</v>
+      </c>
+      <c r="F12" s="7">
+        <v>7.7560000000000002</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4">
         <v>4</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="9"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="4">
         <v>5</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="9"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="4">
         <v>9</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FDAAC9-7017-4BCD-8034-56C6950D1715}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB822D18-25D7-4246-A4A5-32E352DB8A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -48,13 +48,10 @@
     <t>200 iterations</t>
   </si>
   <si>
-    <t>0.061</t>
+    <t>0.699</t>
   </si>
   <si>
-    <t>0.060</t>
-  </si>
-  <si>
-    <t>0.059</t>
+    <t>0.696</t>
   </si>
 </sst>
 </file>
@@ -255,6 +252,9 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,9 +280,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +565,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,24 +574,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -627,7 +624,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
@@ -645,15 +642,21 @@
       <c r="F3" s="7">
         <v>7.3140000000000001</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.432</v>
+      </c>
+      <c r="J3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="4">
         <v>2</v>
       </c>
@@ -669,15 +672,21 @@
       <c r="F4" s="7">
         <v>6.9649999999999999</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="G4" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="I4" s="9">
+        <v>0.43</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="4">
         <v>3</v>
       </c>
@@ -693,15 +702,19 @@
       <c r="F5" s="7">
         <v>7.1239999999999997</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="G5" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.439</v>
+      </c>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="4">
         <v>4</v>
       </c>
@@ -717,15 +730,19 @@
       <c r="F6" s="7">
         <v>6.8840000000000003</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="G6" s="9">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.219</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.435</v>
+      </c>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="4">
         <v>5</v>
       </c>
@@ -741,16 +758,20 @@
       <c r="F7" s="7">
         <v>6.9580000000000002</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="G7" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.217</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.43</v>
+      </c>
       <c r="J7" s="9"/>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="4">
         <v>6</v>
       </c>
@@ -766,15 +787,19 @@
       <c r="F8" s="7">
         <v>6.9450000000000003</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="G8" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.433</v>
+      </c>
       <c r="J8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="4">
         <v>7</v>
       </c>
@@ -790,15 +815,19 @@
       <c r="F9" s="7">
         <v>6.9539999999999997</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="G9" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.437</v>
+      </c>
       <c r="J9" s="9"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="4">
         <v>8</v>
       </c>
@@ -814,15 +843,19 @@
       <c r="F10" s="7">
         <v>7.0460000000000003</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="G10" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.223</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.433</v>
+      </c>
       <c r="J10" s="9"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="4">
         <v>9</v>
       </c>
@@ -838,15 +871,19 @@
       <c r="F11" s="7">
         <v>7.0789999999999997</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="G11" s="9">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.434</v>
+      </c>
       <c r="J11" s="9"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -862,15 +899,19 @@
       <c r="F12" s="7">
         <v>7.7560000000000002</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="G12" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="H12" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.42899999999999999</v>
+      </c>
       <c r="J12" s="9"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4">
@@ -886,7 +927,7 @@
       <c r="J13" s="9"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="4">
         <v>2</v>
       </c>
@@ -900,7 +941,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="11"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="4">
         <v>3</v>
       </c>
@@ -914,7 +955,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="11"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="4">
         <v>4</v>
       </c>
@@ -928,7 +969,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="4">
         <v>5</v>
       </c>
@@ -942,7 +983,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="4">
         <v>6</v>
       </c>
@@ -956,7 +997,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="4">
         <v>7</v>
       </c>
@@ -970,7 +1011,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="4">
         <v>8</v>
       </c>
@@ -984,7 +1025,7 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="4">
         <v>9</v>
       </c>
@@ -998,7 +1039,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="4">
         <v>10</v>
       </c>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB822D18-25D7-4246-A4A5-32E352DB8A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDED57-1876-490E-971D-54CD5D8CABE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>0.696</t>
+  </si>
+  <si>
+    <t>0.700</t>
   </si>
 </sst>
 </file>
@@ -711,7 +714,9 @@
       <c r="I5" s="9">
         <v>0.439</v>
       </c>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="12"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50EDED57-1876-490E-971D-54CD5D8CABE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62741F-25ED-4EAA-A7A0-32E3B634A03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -46,15 +46,6 @@
   </si>
   <si>
     <t>200 iterations</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.696</t>
-  </si>
-  <si>
-    <t>0.700</t>
   </si>
 </sst>
 </file>
@@ -568,7 +559,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,8 +645,8 @@
       <c r="I3" s="9">
         <v>0.432</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>7</v>
+      <c r="J3" s="9">
+        <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -684,8 +675,8 @@
       <c r="I4" s="9">
         <v>0.43</v>
       </c>
-      <c r="J4" s="9" t="s">
-        <v>8</v>
+      <c r="J4" s="9">
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -714,8 +705,8 @@
       <c r="I5" s="9">
         <v>0.439</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>9</v>
+      <c r="J5" s="9">
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -744,7 +735,9 @@
       <c r="I6" s="9">
         <v>0.435</v>
       </c>
-      <c r="J6" s="9"/>
+      <c r="J6" s="9">
+        <v>0.69899999999999995</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="12"/>
@@ -772,7 +765,9 @@
       <c r="I7" s="9">
         <v>0.43</v>
       </c>
-      <c r="J7" s="9"/>
+      <c r="J7" s="9">
+        <v>0.69299999999999995</v>
+      </c>
       <c r="N7" s="8"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -801,7 +796,9 @@
       <c r="I8" s="9">
         <v>0.433</v>
       </c>
-      <c r="J8" s="9"/>
+      <c r="J8" s="9">
+        <v>0.69799999999999995</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="12"/>
@@ -829,7 +826,9 @@
       <c r="I9" s="9">
         <v>0.437</v>
       </c>
-      <c r="J9" s="9"/>
+      <c r="J9" s="9">
+        <v>0.69699999999999995</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="12"/>
@@ -857,7 +856,9 @@
       <c r="I10" s="9">
         <v>0.433</v>
       </c>
-      <c r="J10" s="9"/>
+      <c r="J10" s="9">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="12"/>
@@ -885,7 +886,9 @@
       <c r="I11" s="9">
         <v>0.434</v>
       </c>
-      <c r="J11" s="9"/>
+      <c r="J11" s="9">
+        <v>0.69499999999999995</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
@@ -913,7 +916,9 @@
       <c r="I12" s="9">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J12" s="9"/>
+      <c r="J12" s="9">
+        <v>0.69199999999999995</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,24 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F62741F-25ED-4EAA-A7A0-32E3B634A03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC91BC9-38F0-417F-A34C-0665DF0A91C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -46,6 +52,9 @@
   </si>
   <si>
     <t>200 iterations</t>
+  </si>
+  <si>
+    <t>Average value of attempts</t>
   </si>
 </sst>
 </file>
@@ -130,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,85 +162,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -249,31 +184,25 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -556,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,15 +506,15 @@
       <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="19"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -618,7 +547,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4">
@@ -891,7 +820,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="4">
         <v>10</v>
       </c>
@@ -921,7 +850,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="4">
@@ -1049,7 +978,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="4">
         <v>10</v>
       </c>
@@ -1062,8 +991,144 @@
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
     </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="17"/>
+      <c r="C25" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="5">
+        <v>500</v>
+      </c>
+      <c r="D26" s="5">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1500</v>
+      </c>
+      <c r="F26" s="5">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="1">
+        <v>500</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1500</v>
+      </c>
+      <c r="J26" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="7">
+        <f>AVERAGE(C3:C12)</f>
+        <v>0.44580000000000003</v>
+      </c>
+      <c r="D27" s="7">
+        <f>AVERAGE(D3:D12)</f>
+        <v>1.8466</v>
+      </c>
+      <c r="E27" s="7">
+        <f>AVERAGE(E3:E12)</f>
+        <v>4.0114999999999998</v>
+      </c>
+      <c r="F27" s="7">
+        <f>AVERAGE(F3:F12)</f>
+        <v>7.1025000000000009</v>
+      </c>
+      <c r="G27" s="9">
+        <f>AVERAGE(G3:G12)</f>
+        <v>6.0400000000000009E-2</v>
+      </c>
+      <c r="H27" s="9">
+        <f>AVERAGE(H3:H12)</f>
+        <v>0.21870000000000003</v>
+      </c>
+      <c r="I27" s="9">
+        <f>AVERAGE(I3:I12)</f>
+        <v>0.43319999999999997</v>
+      </c>
+      <c r="J27" s="9">
+        <f>AVERAGE(J3:J12)</f>
+        <v>0.69690000000000007</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="10">
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="A23:J24"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC91BC9-38F0-417F-A34C-0665DF0A91C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DEB75-25DF-42E7-AC96-F645D3865F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,6 +190,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -201,9 +204,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,7 +488,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,18 +503,18 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -856,9 +856,15 @@
       <c r="B13" s="4">
         <v>1</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="7">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3.1469999999999998</v>
+      </c>
+      <c r="E13" s="7">
+        <v>6.9930000000000003</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -870,9 +876,15 @@
       <c r="B14" s="4">
         <v>2</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+      <c r="C14" s="7">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2.7919999999999998</v>
+      </c>
+      <c r="E14" s="7">
+        <v>6.2149999999999999</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -884,9 +896,15 @@
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+      <c r="C15" s="7">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D15" s="7">
+        <v>2.7930000000000001</v>
+      </c>
+      <c r="E15" s="7">
+        <v>6.3019999999999996</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -898,9 +916,15 @@
       <c r="B16" s="4">
         <v>4</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+      <c r="C16" s="7">
+        <v>0.68799999999999994</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2.79</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6.3159999999999998</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
@@ -912,9 +936,15 @@
       <c r="B17" s="4">
         <v>5</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="7">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2.8359999999999999</v>
+      </c>
+      <c r="E17" s="7">
+        <v>6.2249999999999996</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
@@ -926,9 +956,15 @@
       <c r="B18" s="4">
         <v>6</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="7">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="D18" s="7">
+        <v>3.1589999999999998</v>
+      </c>
+      <c r="E18" s="7">
+        <v>6.3010000000000002</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -940,9 +976,15 @@
       <c r="B19" s="4">
         <v>7</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="7">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="D19" s="7">
+        <v>2.802</v>
+      </c>
+      <c r="E19" s="7">
+        <v>6.1959999999999997</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
@@ -954,9 +996,15 @@
       <c r="B20" s="4">
         <v>8</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="7">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2.758</v>
+      </c>
+      <c r="E20" s="7">
+        <v>6.3150000000000004</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
@@ -968,9 +1016,15 @@
       <c r="B21" s="4">
         <v>9</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="C21" s="7">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="D21" s="7">
+        <v>2.8119999999999998</v>
+      </c>
+      <c r="E21" s="7">
+        <v>6.2779999999999996</v>
+      </c>
       <c r="F21" s="7"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
@@ -982,9 +1036,15 @@
       <c r="B22" s="4">
         <v>10</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+      <c r="C22" s="7">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2.8029999999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>6.2859999999999996</v>
+      </c>
       <c r="F22" s="7"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -992,54 +1052,54 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="13"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="5">
         <v>500</v>
       </c>
@@ -1071,35 +1131,35 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="7">
-        <f>AVERAGE(C3:C12)</f>
+        <f t="shared" ref="C27:J27" si="0">AVERAGE(C3:C12)</f>
         <v>0.44580000000000003</v>
       </c>
       <c r="D27" s="7">
-        <f>AVERAGE(D3:D12)</f>
+        <f t="shared" si="0"/>
         <v>1.8466</v>
       </c>
       <c r="E27" s="7">
-        <f>AVERAGE(E3:E12)</f>
+        <f t="shared" si="0"/>
         <v>4.0114999999999998</v>
       </c>
       <c r="F27" s="7">
-        <f>AVERAGE(F3:F12)</f>
+        <f t="shared" si="0"/>
         <v>7.1025000000000009</v>
       </c>
       <c r="G27" s="9">
-        <f>AVERAGE(G3:G12)</f>
+        <f t="shared" si="0"/>
         <v>6.0400000000000009E-2</v>
       </c>
       <c r="H27" s="9">
-        <f>AVERAGE(H3:H12)</f>
+        <f t="shared" si="0"/>
         <v>0.21870000000000003</v>
       </c>
       <c r="I27" s="9">
-        <f>AVERAGE(I3:I12)</f>
+        <f t="shared" si="0"/>
         <v>0.43319999999999997</v>
       </c>
       <c r="J27" s="9">
-        <f>AVERAGE(J3:J12)</f>
+        <f t="shared" si="0"/>
         <v>0.69690000000000007</v>
       </c>
     </row>
@@ -1123,16 +1183,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:J25"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416DEB75-25DF-42E7-AC96-F645D3865F17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B08DA-3F85-4C85-8E30-7CB9405FF22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Julia 2D</t>
   </si>
@@ -487,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -865,11 +865,21 @@
       <c r="E13" s="7">
         <v>6.9930000000000003</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
+      <c r="F13" s="7">
+        <v>11.39</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="J13" s="9">
+        <v>0.66200000000000003</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
@@ -885,11 +895,21 @@
       <c r="E14" s="7">
         <v>6.2149999999999999</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
+      <c r="F14" s="7">
+        <v>11.128</v>
+      </c>
+      <c r="G14" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J14" s="9">
+        <v>0.66100000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
@@ -905,11 +925,21 @@
       <c r="E15" s="7">
         <v>6.3019999999999996</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="F15" s="7">
+        <v>11.349</v>
+      </c>
+      <c r="G15" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="I15" s="9">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="J15" s="9">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
@@ -925,11 +955,21 @@
       <c r="E16" s="7">
         <v>6.3159999999999998</v>
       </c>
-      <c r="F16" s="7"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="F16" s="7">
+        <v>11.606999999999999</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="J16" s="9">
+        <v>0.66100000000000003</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
@@ -945,11 +985,21 @@
       <c r="E17" s="7">
         <v>6.2249999999999996</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="7">
+        <v>11.439</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="J17" s="9">
+        <v>0.65900000000000003</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="12"/>
@@ -965,11 +1015,21 @@
       <c r="E18" s="7">
         <v>6.3010000000000002</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="F18" s="7">
+        <v>11.044</v>
+      </c>
+      <c r="G18" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>0.217</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0.66800000000000004</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
@@ -985,11 +1045,21 @@
       <c r="E19" s="7">
         <v>6.1959999999999997</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="F19" s="7">
+        <v>11.084</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.214</v>
+      </c>
+      <c r="I19" s="9">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J19" s="9">
+        <v>0.66</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="12"/>
@@ -1005,11 +1075,21 @@
       <c r="E20" s="7">
         <v>6.3150000000000004</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="F20" s="7">
+        <v>11.096</v>
+      </c>
+      <c r="G20" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>0.217</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0.66700000000000004</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="12"/>
@@ -1025,11 +1105,21 @@
       <c r="E21" s="7">
         <v>6.2779999999999996</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
+      <c r="F21" s="7">
+        <v>11.036</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="J21" s="9">
+        <v>0.66800000000000004</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="12"/>
@@ -1045,11 +1135,21 @@
       <c r="E22" s="7">
         <v>6.2859999999999996</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
+      <c r="F22" s="7">
+        <v>11.172000000000001</v>
+      </c>
+      <c r="G22" s="9">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="H22" s="9">
+        <v>0.216</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J22" s="9">
+        <v>0.66300000000000003</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="17" t="s">
@@ -1131,11 +1231,11 @@
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="7">
-        <f t="shared" ref="C27:J27" si="0">AVERAGE(C3:C12)</f>
+        <f>AVERAGE(C3:C12)</f>
         <v>0.44580000000000003</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C27:J27" si="0">AVERAGE(D3:D12)</f>
         <v>1.8466</v>
       </c>
       <c r="E27" s="7">
@@ -1151,7 +1251,7 @@
         <v>6.0400000000000009E-2</v>
       </c>
       <c r="H27" s="9">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H3:H12)</f>
         <v>0.21870000000000003</v>
       </c>
       <c r="I27" s="9">
@@ -1164,7 +1264,42 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
+      <c r="A28" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="C28" s="7">
+        <f>AVERAGE(C13:C22)</f>
+        <v>0.71479999999999999</v>
+      </c>
+      <c r="D28" s="7">
+        <f t="shared" ref="D28:J28" si="1">AVERAGE(D13:D22)</f>
+        <v>2.8692000000000002</v>
+      </c>
+      <c r="E28" s="7">
+        <f t="shared" si="1"/>
+        <v>6.3426999999999989</v>
+      </c>
+      <c r="F28" s="7">
+        <f t="shared" si="1"/>
+        <v>11.234500000000001</v>
+      </c>
+      <c r="G28" s="7">
+        <f t="shared" si="1"/>
+        <v>5.7800000000000004E-2</v>
+      </c>
+      <c r="H28" s="7">
+        <f>AVERAGE(H13:H22)</f>
+        <v>0.21420000000000003</v>
+      </c>
+      <c r="I28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.41810000000000003</v>
+      </c>
+      <c r="J28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.66390000000000005</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
@@ -1182,7 +1317,8 @@
       <c r="A33" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A13:A22"/>
     <mergeCell ref="C1:F1"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF6B08DA-3F85-4C85-8E30-7CB9405FF22C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A26396-B223-4584-954D-AA023F689224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,11 +190,8 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -202,8 +199,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -220,6 +220,1104 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Host (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.44580000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8466</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0114999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1025000000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-09E4-4A70-8138-F850B8139C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Device (sec)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$G$26:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$27:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.0400000000000009E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21870000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43319999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.69690000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-09E4-4A70-8138-F850B8139C40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="219096703"/>
+        <c:axId val="257173647"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="219096703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="257173647"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="257173647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="219096703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29688CB-89CB-4ADB-B860-95FF3AD7A9D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,8 +1585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -503,18 +1601,18 @@
       <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -1152,54 +2250,54 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="17" t="s">
+      <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="15" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="16" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="5">
         <v>500</v>
       </c>
@@ -1235,7 +2333,7 @@
         <v>0.44580000000000003</v>
       </c>
       <c r="D27" s="7">
-        <f t="shared" ref="C27:J27" si="0">AVERAGE(D3:D12)</f>
+        <f t="shared" ref="D27:J27" si="0">AVERAGE(D3:D12)</f>
         <v>1.8466</v>
       </c>
       <c r="E27" s="7">
@@ -1332,5 +2430,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66A26396-B223-4584-954D-AA023F689224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE2407-0032-4B8D-9519-3973A0E748DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,30 +31,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
-    <t>Julia 2D</t>
+    <t>Попытка</t>
   </si>
   <si>
-    <t>Mandelbrot 2D</t>
+    <t>200 итераций</t>
   </si>
   <si>
-    <t>Side (px)</t>
+    <t>Сторона (пикс)</t>
   </si>
   <si>
-    <t>Attempt</t>
+    <t>CPU</t>
   </si>
   <si>
-    <t>Host (sec)</t>
+    <t>GPU</t>
   </si>
   <si>
-    <t>Device (sec)</t>
+    <t>Фрактал Жюлиа 2D</t>
   </si>
   <si>
-    <t>200 iterations</t>
+    <t>Фрактал Мандельброта 2D</t>
   </si>
   <si>
-    <t>Average value of attempts</t>
+    <t>Среднее время попыток</t>
   </si>
 </sst>
 </file>
@@ -139,7 +139,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -162,6 +162,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -169,10 +195,6 @@
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -205,6 +227,12 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -236,6 +264,78 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Фрактал Жюлиа </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2D</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее время попыток</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -251,7 +351,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Host (sec)</c:v>
+                  <c:v>CPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -266,19 +366,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -340,7 +428,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$J$26</c:f>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -383,7 +471,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-09E4-4A70-8138-F850B8139C40}"/>
+              <c16:uniqueId val="{00000000-A170-452F-9B23-DD2494277F49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -396,7 +484,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Device (sec)</c:v>
+                  <c:v>GPU</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -411,19 +499,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:dLbls>
             <c:spPr>
@@ -485,7 +561,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$G$26:$J$26</c:f>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -528,7 +604,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-09E4-4A70-8138-F850B8139C40}"/>
+              <c16:uniqueId val="{00000001-A170-452F-9B23-DD2494277F49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -541,18 +617,77 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219096703"/>
-        <c:axId val="257173647"/>
+        <c:axId val="1425024928"/>
+        <c:axId val="1151186064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219096703"/>
+        <c:axId val="1425024928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сторона фрактала</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> в пикселях</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -590,7 +725,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257173647"/>
+        <c:crossAx val="1151186064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -598,7 +733,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="257173647"/>
+        <c:axId val="1151186064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -618,6 +753,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время в секундах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -649,7 +839,683 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219096703"/>
+        <c:crossAx val="1425024928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Фрактал Мандельброта </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2D</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее время попыток</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.71479999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8692000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3426999999999989</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.234500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A9C2-422C-8729-C25D99BB0E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$28:$J$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.7800000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21420000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.41810000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66390000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A9C2-422C-8729-C25D99BB0E8D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1425024928"/>
+        <c:axId val="1151186064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1425024928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сторона фрактала</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> в пикселях</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151186064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1151186064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время в секундах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425024928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -776,8 +1642,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -885,6 +1791,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -895,6 +1806,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -926,6 +1842,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1279,27 +2198,543 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Диаграмма 5">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C29688CB-89CB-4ADB-B860-95FF3AD7A9D9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{419C4C9F-04A2-446C-90AC-BC57A06915FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1312,6 +2747,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B914AF80-ADCB-45D1-87A5-D8F5D7545A81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1585,8 +3058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1595,40 +3068,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="5">
+      <c r="B2" s="17"/>
+      <c r="C2" s="3">
         <v>500</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="3">
         <v>1000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1500</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>2000</v>
       </c>
       <c r="G2" s="1">
@@ -1645,669 +3118,669 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.497</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>2.452</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>4.2409999999999997</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>7.3140000000000001</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="7">
         <v>0.214</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="7">
         <v>0.432</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="4">
+      <c r="A4" s="10"/>
+      <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>1.7549999999999999</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>3.9940000000000002</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>6.9649999999999999</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="7">
         <v>0.223</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="7">
         <v>0.43</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="4">
+      <c r="A5" s="10"/>
+      <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>1.863</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>3.9289999999999998</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>7.1239999999999997</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="7">
         <v>0.06</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="7">
         <v>0.223</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="7">
         <v>0.439</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="4">
+      <c r="A6" s="10"/>
+      <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="5">
         <v>1.77</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="5">
         <v>3.9260000000000002</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <v>6.8840000000000003</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="7">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="7">
         <v>0.219</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="7">
         <v>0.435</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="4">
+      <c r="A7" s="10"/>
+      <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>0.435</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="5">
         <v>1.746</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="5">
         <v>3.8759999999999999</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="5">
         <v>6.9580000000000002</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="7">
         <v>0.06</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>0.217</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>0.43</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="7">
         <v>0.69299999999999995</v>
       </c>
-      <c r="N7" s="8"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="4">
+      <c r="A8" s="10"/>
+      <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>0.443</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>1.861</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>3.96</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>6.9450000000000003</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>0.216</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>0.433</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="4">
+      <c r="A9" s="10"/>
+      <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>1.724</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>4.4409999999999998</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>6.9539999999999997</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="7">
         <v>0.22</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>0.437</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="7">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="4">
+      <c r="A10" s="10"/>
+      <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>1.8180000000000001</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>3.9359999999999999</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>7.0460000000000003</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="7">
         <v>0.06</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="7">
         <v>0.223</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>0.433</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="4">
+      <c r="A11" s="10"/>
+      <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>0.433</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>1.7649999999999999</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>3.8839999999999999</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>7.0789999999999997</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="7">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="7">
         <v>0.22</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>0.434</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="7">
         <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="4">
+      <c r="A12" s="10"/>
+      <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="5">
         <v>0.437</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>1.712</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>3.9279999999999999</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>7.7560000000000002</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="7">
         <v>0.06</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="7">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="7">
         <v>0.69199999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="B13" s="4">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>0.84699999999999998</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>3.1469999999999998</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>6.9930000000000003</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>11.39</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="7">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>0.41499999999999998</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="7">
         <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4">
+      <c r="A14" s="10"/>
+      <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="5">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>2.7919999999999998</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <v>6.2149999999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>11.128</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="7">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>0.41699999999999998</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="4">
+      <c r="A15" s="10"/>
+      <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="5">
         <v>0.70099999999999996</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>2.7930000000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>6.3019999999999996</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>11.349</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="7">
         <v>0.214</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>0.41599999999999998</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>0.67</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="4">
+      <c r="A16" s="10"/>
+      <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="5">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>2.79</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>6.3159999999999998</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>11.606999999999999</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="7">
         <v>0.216</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="7">
         <v>0.41499999999999998</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="7">
         <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="4">
+      <c r="A17" s="10"/>
+      <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>2.8359999999999999</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>6.2249999999999996</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>11.439</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="7">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="7">
         <v>0.41699999999999998</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="7">
         <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="4">
+      <c r="A18" s="10"/>
+      <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>0.73099999999999998</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>3.1589999999999998</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="5">
         <v>6.3010000000000002</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="5">
         <v>11.044</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="7">
         <v>0.217</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="7">
         <v>0.41899999999999998</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="4">
+      <c r="A19" s="10"/>
+      <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>0.70199999999999996</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>2.802</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="5">
         <v>6.1959999999999997</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="5">
         <v>11.084</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="7">
         <v>0.214</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="7">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="7">
         <v>0.66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="4">
+      <c r="A20" s="10"/>
+      <c r="B20" s="2">
         <v>8</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>0.70099999999999996</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>2.758</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="5">
         <v>6.3150000000000004</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="5">
         <v>11.096</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="7">
         <v>0.217</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="7">
         <v>0.41899999999999998</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="7">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="4">
+      <c r="A21" s="10"/>
+      <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>2.8119999999999998</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>6.2779999999999996</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>11.036</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="7">
         <v>0.216</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="7">
         <v>0.42399999999999999</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="7">
         <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="4">
+      <c r="A22" s="10"/>
+      <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>2.8029999999999999</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="5">
         <v>6.2859999999999996</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="5">
         <v>11.172000000000001</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="7">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H22" s="9">
+      <c r="H22" s="7">
         <v>0.216</v>
       </c>
-      <c r="I22" s="9">
+      <c r="I22" s="7">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="A25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="5">
+      <c r="B26" s="15"/>
+      <c r="C26" s="3">
         <v>500</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="3">
         <v>1500</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="3">
         <v>2000</v>
       </c>
       <c r="G26" s="1">
@@ -2324,98 +3797,100 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="7">
+      <c r="A27" s="10" t="str">
+        <f>A3</f>
+        <v>Фрактал Жюлиа 2D</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="5">
         <f>AVERAGE(C3:C12)</f>
         <v>0.44580000000000003</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="5">
         <f t="shared" ref="D27:J27" si="0">AVERAGE(D3:D12)</f>
         <v>1.8466</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>4.0114999999999998</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>7.1025000000000009</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="7">
         <f t="shared" si="0"/>
         <v>6.0400000000000009E-2</v>
       </c>
-      <c r="H27" s="9">
+      <c r="H27" s="7">
         <f>AVERAGE(H3:H12)</f>
         <v>0.21870000000000003</v>
       </c>
-      <c r="I27" s="9">
+      <c r="I27" s="7">
         <f t="shared" si="0"/>
         <v>0.43319999999999997</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="7">
         <f t="shared" si="0"/>
         <v>0.69690000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="7">
+      <c r="A28" s="10" t="str">
+        <f>A13</f>
+        <v>Фрактал Мандельброта 2D</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="5">
         <f>AVERAGE(C13:C22)</f>
         <v>0.71479999999999999</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="5">
         <f t="shared" ref="D28:J28" si="1">AVERAGE(D13:D22)</f>
         <v>2.8692000000000002</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="5">
         <f t="shared" si="1"/>
         <v>6.3426999999999989</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
         <v>11.234500000000001</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="5">
         <f t="shared" si="1"/>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="5">
         <f>AVERAGE(H13:H22)</f>
         <v>0.21420000000000003</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="5">
         <f t="shared" si="1"/>
         <v>0.41810000000000003</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="5">
         <f t="shared" si="1"/>
         <v>0.66390000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
+      <c r="A29" s="9"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
+      <c r="A30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
+      <c r="A31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="11"/>
+      <c r="A32" s="9"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11"/>
+      <c r="A33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A13:A22"/>
@@ -2427,6 +3902,7 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFE2407-0032-4B8D-9519-3973A0E748DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDA929-E0E3-4D0D-BC38-821A431359FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>Попытка</t>
   </si>
@@ -56,6 +56,12 @@
   <si>
     <t>Среднее время попыток</t>
   </si>
+  <si>
+    <t>Фрактал Жюлиа 2D (линейный размер)</t>
+  </si>
+  <si>
+    <t>Фрактал Мандельброта 2D (линейный размер)</t>
+  </si>
 </sst>
 </file>
 
@@ -64,7 +70,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +101,15 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -192,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -233,6 +248,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1260,7 +1280,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$28:$J$28</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>5.7800000000000004E-2</c:v>
@@ -1602,6 +1622,1368 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Фрактал Жюлиа </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2D</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее время попыток для линейного</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> размера</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.66768255930494402</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3588966112254457</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.002872936558882</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6650515942472861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3F97-4C3E-96FB-FB53C23041D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$29:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24576411454889016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4676537180435969</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65817930687617332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83480536653761406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3F97-4C3E-96FB-FB53C23041D6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1425024928"/>
+        <c:axId val="1151186064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1425024928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сторона фрактала</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> в пикселях</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151186064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1151186064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время в секундах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425024928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Фрактал Мандельброта </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>2D</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Среднее время попыток для линейного</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> размера</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.84545845551393006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6938713056191725</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5184717588251808</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3517905662496279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E02D-4E9B-AFC2-5F9D052098AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$30:$J$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.24041630560342617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4628174586162454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.64660652641308847</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81480058910140707</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E02D-4E9B-AFC2-5F9D052098AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1425024928"/>
+        <c:axId val="1151186064"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1425024928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сторона фрактала</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> в пикселях</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1151186064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1151186064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время в секундах</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1425024928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1682,6 +3064,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2199,6 +3661,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2785,6 +5279,82 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{929F573E-CBEB-475B-9C63-300042D3A3EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18633E75-99A6-4671-93AD-3920E6342E53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3058,8 +5628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
+      <selection activeCell="AA25" sqref="AA25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3797,9 +6367,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="str">
-        <f>A3</f>
-        <v>Фрактал Жюлиа 2D</v>
+      <c r="A27" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B27" s="10"/>
       <c r="C27" s="5">
@@ -3836,9 +6405,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="str">
-        <f>A13</f>
-        <v>Фрактал Мандельброта 2D</v>
+      <c r="A28" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B28" s="10"/>
       <c r="C28" s="5">
@@ -3857,28 +6425,98 @@
         <f t="shared" si="1"/>
         <v>11.234500000000001</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="7">
         <f t="shared" si="1"/>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="7">
         <f>AVERAGE(H13:H22)</f>
         <v>0.21420000000000003</v>
       </c>
-      <c r="I28" s="5">
+      <c r="I28" s="7">
         <f t="shared" si="1"/>
         <v>0.41810000000000003</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="7">
         <f t="shared" si="1"/>
         <v>0.66390000000000005</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="9"/>
+      <c r="A29" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="20">
+        <f>SQRT(C27)</f>
+        <v>0.66768255930494402</v>
+      </c>
+      <c r="D29" s="20">
+        <f t="shared" ref="D29:J30" si="2">SQRT(D27)</f>
+        <v>1.3588966112254457</v>
+      </c>
+      <c r="E29" s="20">
+        <f t="shared" si="2"/>
+        <v>2.002872936558882</v>
+      </c>
+      <c r="F29" s="20">
+        <f t="shared" si="2"/>
+        <v>2.6650515942472861</v>
+      </c>
+      <c r="G29" s="19">
+        <f t="shared" si="2"/>
+        <v>0.24576411454889016</v>
+      </c>
+      <c r="H29" s="19">
+        <f t="shared" si="2"/>
+        <v>0.4676537180435969</v>
+      </c>
+      <c r="I29" s="19">
+        <f t="shared" si="2"/>
+        <v>0.65817930687617332</v>
+      </c>
+      <c r="J29" s="19">
+        <f t="shared" si="2"/>
+        <v>0.83480536653761406</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="9"/>
+      <c r="A30" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="20">
+        <f>SQRT(C28)</f>
+        <v>0.84545845551393006</v>
+      </c>
+      <c r="D30" s="20">
+        <f t="shared" si="2"/>
+        <v>1.6938713056191725</v>
+      </c>
+      <c r="E30" s="20">
+        <f t="shared" si="2"/>
+        <v>2.5184717588251808</v>
+      </c>
+      <c r="F30" s="20">
+        <f t="shared" si="2"/>
+        <v>3.3517905662496279</v>
+      </c>
+      <c r="G30" s="19">
+        <f t="shared" si="2"/>
+        <v>0.24041630560342617</v>
+      </c>
+      <c r="H30" s="19">
+        <f t="shared" si="2"/>
+        <v>0.4628174586162454</v>
+      </c>
+      <c r="I30" s="19">
+        <f t="shared" si="2"/>
+        <v>0.64660652641308847</v>
+      </c>
+      <c r="J30" s="19">
+        <f t="shared" si="2"/>
+        <v>0.81480058910140707</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
@@ -3890,7 +6528,9 @@
       <c r="A33" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A23:J24"/>
     <mergeCell ref="A13:A22"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BDA929-E0E3-4D0D-BC38-821A431359FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47320450-9E6D-48E7-BF88-6EEA1E576D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Попытка</t>
   </si>
@@ -62,6 +62,12 @@
   <si>
     <t>Фрактал Мандельброта 2D (линейный размер)</t>
   </si>
+  <si>
+    <t>Выигрыш в производительности</t>
+  </si>
+  <si>
+    <t>Время CPU / время GPU</t>
+  </si>
 </sst>
 </file>
 
@@ -70,7 +76,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +121,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,8 +166,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -203,11 +222,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -221,8 +278,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,14 +307,27 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Процентный" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5626,10 +5698,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="AA25" sqref="AA25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5641,27 +5713,27 @@
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="3">
         <v>500</v>
       </c>
@@ -5688,7 +5760,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
@@ -5720,7 +5792,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -5750,7 +5822,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -5780,7 +5852,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -5810,7 +5882,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -5841,7 +5913,7 @@
       <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -5871,7 +5943,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -5901,7 +5973,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -5931,7 +6003,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -5961,7 +6033,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -5991,7 +6063,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
@@ -6023,7 +6095,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
@@ -6053,7 +6125,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
@@ -6083,7 +6155,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
@@ -6113,7 +6185,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
@@ -6143,7 +6215,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
@@ -6173,7 +6245,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
@@ -6203,7 +6275,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
@@ -6233,7 +6305,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
@@ -6263,7 +6335,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
@@ -6293,54 +6365,54 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="13" t="s">
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="15"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3">
         <v>500</v>
       </c>
@@ -6367,10 +6439,10 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="5">
         <f>AVERAGE(C3:C12)</f>
         <v>0.44580000000000003</v>
@@ -6405,10 +6477,10 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="10"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="5">
         <f>AVERAGE(C13:C22)</f>
         <v>0.71479999999999999</v>
@@ -6443,97 +6515,279 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="20">
+      <c r="B29" s="11"/>
+      <c r="C29" s="10">
         <f>SQRT(C27)</f>
         <v>0.66768255930494402</v>
       </c>
-      <c r="D29" s="20">
+      <c r="D29" s="10">
         <f t="shared" ref="D29:J30" si="2">SQRT(D27)</f>
         <v>1.3588966112254457</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="10">
         <f t="shared" si="2"/>
         <v>2.002872936558882</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F29" s="10">
         <f t="shared" si="2"/>
         <v>2.6650515942472861</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="9">
         <f t="shared" si="2"/>
         <v>0.24576411454889016</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="9">
         <f t="shared" si="2"/>
         <v>0.4676537180435969</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="9">
         <f t="shared" si="2"/>
         <v>0.65817930687617332</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="9">
         <f t="shared" si="2"/>
         <v>0.83480536653761406</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="20">
+      <c r="B30" s="11"/>
+      <c r="C30" s="10">
         <f>SQRT(C28)</f>
         <v>0.84545845551393006</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="10">
         <f t="shared" si="2"/>
         <v>1.6938713056191725</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="10">
         <f t="shared" si="2"/>
         <v>2.5184717588251808</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="10">
         <f t="shared" si="2"/>
         <v>3.3517905662496279</v>
       </c>
-      <c r="G30" s="19">
+      <c r="G30" s="9">
         <f t="shared" si="2"/>
         <v>0.24041630560342617</v>
       </c>
-      <c r="H30" s="19">
+      <c r="H30" s="9">
         <f t="shared" si="2"/>
         <v>0.4628174586162454</v>
       </c>
-      <c r="I30" s="19">
+      <c r="I30" s="9">
         <f t="shared" si="2"/>
         <v>0.64660652641308847</v>
       </c>
-      <c r="J30" s="19">
+      <c r="J30" s="9">
         <f t="shared" si="2"/>
         <v>0.81480058910140707</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="9"/>
+      <c r="A31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="9"/>
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="9"/>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="16"/>
+      <c r="C33" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="17"/>
+      <c r="C34" s="23">
+        <v>500</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="23">
+        <v>1000</v>
+      </c>
+      <c r="F34" s="24"/>
+      <c r="G34" s="23">
+        <v>1500</v>
+      </c>
+      <c r="H34" s="24"/>
+      <c r="I34" s="23">
+        <v>2000</v>
+      </c>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="C35" s="25">
+        <f>C27/G27</f>
+        <v>7.3807947019867539</v>
+      </c>
+      <c r="D35" s="26"/>
+      <c r="E35" s="25">
+        <f>D27/H27</f>
+        <v>8.4435299497027874</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="25">
+        <f>E27/I27</f>
+        <v>9.2601569713758085</v>
+      </c>
+      <c r="H35" s="26"/>
+      <c r="I35" s="25">
+        <f>F27/J27</f>
+        <v>10.191562634524322</v>
+      </c>
+      <c r="J35" s="26"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="C36" s="25">
+        <f t="shared" ref="C36:C37" si="3">C28/G28</f>
+        <v>12.366782006920413</v>
+      </c>
+      <c r="D36" s="26"/>
+      <c r="E36" s="25">
+        <f t="shared" ref="E36:E37" si="4">D28/H28</f>
+        <v>13.394957983193276</v>
+      </c>
+      <c r="F36" s="26"/>
+      <c r="G36" s="25">
+        <f t="shared" ref="G36:G38" si="5">E28/I28</f>
+        <v>15.170294187993299</v>
+      </c>
+      <c r="H36" s="26"/>
+      <c r="I36" s="25">
+        <f t="shared" ref="I36:I38" si="6">F28/J28</f>
+        <v>16.921976201235125</v>
+      </c>
+      <c r="J36" s="26"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="11"/>
+      <c r="C37" s="25">
+        <f t="shared" si="3"/>
+        <v>2.7167618044257682</v>
+      </c>
+      <c r="D37" s="26"/>
+      <c r="E37" s="25">
+        <f t="shared" si="4"/>
+        <v>2.9057752751551158</v>
+      </c>
+      <c r="F37" s="26"/>
+      <c r="G37" s="25">
+        <f t="shared" si="5"/>
+        <v>3.0430506028286497</v>
+      </c>
+      <c r="H37" s="26"/>
+      <c r="I37" s="25">
+        <f t="shared" si="6"/>
+        <v>3.1924226904538067</v>
+      </c>
+      <c r="J37" s="26"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="25">
+        <f>C30/G30</f>
+        <v>3.5166435712082644</v>
+      </c>
+      <c r="D38" s="26"/>
+      <c r="E38" s="25">
+        <f>D30/H30</f>
+        <v>3.6599122917350462</v>
+      </c>
+      <c r="F38" s="26"/>
+      <c r="G38" s="25">
+        <f t="shared" si="5"/>
+        <v>3.8949061847486517</v>
+      </c>
+      <c r="H38" s="26"/>
+      <c r="I38" s="25">
+        <f t="shared" si="6"/>
+        <v>4.1136329687072388</v>
+      </c>
+      <c r="J38" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
+  <mergeCells count="42">
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A3:A12"/>
@@ -6543,6 +6797,11 @@
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 2D — копия.xlsx
+++ b/Time 2D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47320450-9E6D-48E7-BF88-6EEA1E576D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB378DE-882D-4E98-B09E-6AD87AC780B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,97 +196,40 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -295,35 +238,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5700,8 +5621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35:H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5710,30 +5631,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="15" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="3">
         <v>500</v>
       </c>
@@ -5760,659 +5681,659 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.497</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2.452</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>4.2409999999999997</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>7.3140000000000001</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="6">
         <v>0.214</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <v>0.432</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="6">
         <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.44400000000000001</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>1.7549999999999999</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>3.9940000000000002</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>6.9649999999999999</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <v>0.223</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>0.43</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.47599999999999998</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>1.863</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>3.9289999999999998</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>7.1239999999999997</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>0.06</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="6">
         <v>0.223</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <v>0.439</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>1.77</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>3.9260000000000002</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>6.8840000000000003</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="6">
         <v>0.219</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>0.435</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>0.69899999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.435</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>1.746</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>3.8759999999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>6.9580000000000002</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="6">
         <v>0.06</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="6">
         <v>0.217</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>0.43</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="6">
         <v>0.69299999999999995</v>
       </c>
-      <c r="N7" s="6"/>
+      <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.443</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>1.861</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>3.96</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>6.9450000000000003</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="6">
         <v>0.216</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0.433</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="6">
         <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>1.724</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>4.4409999999999998</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>6.9539999999999997</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>0.22</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0.437</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="6">
         <v>0.69699999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.43099999999999999</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>1.8180000000000001</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>3.9359999999999999</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>7.0460000000000003</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="6">
         <v>0.06</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="6">
         <v>0.223</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>0.433</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="6">
         <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.433</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>1.7649999999999999</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>3.8839999999999999</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>7.0789999999999997</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>0.22</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>0.434</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>0.69499999999999995</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.437</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1.712</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>3.9279999999999999</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>7.7560000000000002</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>0.06</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="6">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <v>0.42899999999999999</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="6">
         <v>0.69199999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2">
         <v>1</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.84699999999999998</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>3.1469999999999998</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>6.9930000000000003</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>11.39</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>0.20799999999999999</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>0.41499999999999998</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>0.66200000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>2.7919999999999998</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>6.2149999999999999</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>11.128</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="6">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <v>0.41699999999999998</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="6">
         <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>2.7930000000000001</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>6.3019999999999996</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>11.349</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="6">
         <v>0.214</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <v>0.41599999999999998</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="6">
         <v>0.67</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="2">
         <v>4</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.68799999999999994</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2.79</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>6.3159999999999998</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>11.606999999999999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="6">
         <v>0.216</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <v>0.41499999999999998</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="6">
         <v>0.66100000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="2">
         <v>5</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.68700000000000006</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>2.8359999999999999</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>6.2249999999999996</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>11.439</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>0.21199999999999999</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>0.41699999999999998</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>0.65900000000000003</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="2">
         <v>6</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.73099999999999998</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>3.1589999999999998</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>6.3010000000000002</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>11.044</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="6">
         <v>0.217</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <v>0.41899999999999998</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="6">
         <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="2">
         <v>7</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.70199999999999996</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>2.802</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>6.1959999999999997</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>11.084</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="6">
         <v>0.214</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <v>0.41399999999999998</v>
       </c>
-      <c r="J19" s="7">
+      <c r="J19" s="6">
         <v>0.66</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="2">
         <v>8</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.70099999999999996</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>2.758</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>6.3150000000000004</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>11.096</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="6">
         <v>0.217</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <v>0.41899999999999998</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J20" s="6">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2">
         <v>9</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.70699999999999996</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>2.8119999999999998</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>6.2779999999999996</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>11.036</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>0.216</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>0.42399999999999999</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>0.66800000000000004</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="2">
         <v>10</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>0.68600000000000005</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>2.8029999999999999</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <v>6.2859999999999996</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="4">
         <v>11.172000000000001</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>0.216</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="6">
         <v>0.66300000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="13"/>
+      <c r="C25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="15" t="s">
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="17"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="3">
         <v>500</v>
       </c>
@@ -6439,77 +6360,77 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="5">
+      <c r="B27" s="15"/>
+      <c r="C27" s="4">
         <f>AVERAGE(C3:C12)</f>
         <v>0.44580000000000003</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <f t="shared" ref="D27:J27" si="0">AVERAGE(D3:D12)</f>
         <v>1.8466</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>4.0114999999999998</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <f t="shared" si="0"/>
         <v>7.1025000000000009</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="6">
         <f t="shared" si="0"/>
         <v>6.0400000000000009E-2</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="6">
         <f>AVERAGE(H3:H12)</f>
         <v>0.21870000000000003</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="0"/>
         <v>0.43319999999999997</v>
       </c>
-      <c r="J27" s="7">
+      <c r="J27" s="6">
         <f t="shared" si="0"/>
         <v>0.69690000000000007</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12"/>
-      <c r="C28" s="5">
+      <c r="B28" s="15"/>
+      <c r="C28" s="4">
         <f>AVERAGE(C13:C22)</f>
         <v>0.71479999999999999</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <f t="shared" ref="D28:J28" si="1">AVERAGE(D13:D22)</f>
         <v>2.8692000000000002</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="1"/>
         <v>6.3426999999999989</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>11.234500000000001</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="6">
         <f t="shared" si="1"/>
         <v>5.7800000000000004E-2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="6">
         <f>AVERAGE(H13:H22)</f>
         <v>0.21420000000000003</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="6">
         <f t="shared" si="1"/>
         <v>0.41810000000000003</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="6">
         <f t="shared" si="1"/>
         <v>0.66390000000000005</v>
       </c>
@@ -6519,35 +6440,35 @@
         <v>8</v>
       </c>
       <c r="B29" s="11"/>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <f>SQRT(C27)</f>
         <v>0.66768255930494402</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <f t="shared" ref="D29:J30" si="2">SQRT(D27)</f>
         <v>1.3588966112254457</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <f t="shared" si="2"/>
         <v>2.002872936558882</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <f t="shared" si="2"/>
         <v>2.6650515942472861</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="7">
         <f t="shared" si="2"/>
         <v>0.24576411454889016</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="7">
         <f t="shared" si="2"/>
         <v>0.4676537180435969</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="7">
         <f t="shared" si="2"/>
         <v>0.65817930687617332</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="7">
         <f t="shared" si="2"/>
         <v>0.83480536653761406</v>
       </c>
@@ -6557,216 +6478,230 @@
         <v>9</v>
       </c>
       <c r="B30" s="11"/>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <f>SQRT(C28)</f>
         <v>0.84545845551393006</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <f t="shared" si="2"/>
         <v>1.6938713056191725</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <f t="shared" si="2"/>
         <v>2.5184717588251808</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <f t="shared" si="2"/>
         <v>3.3517905662496279</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="7">
         <f t="shared" si="2"/>
         <v>0.24041630560342617</v>
       </c>
-      <c r="H30" s="9">
+      <c r="H30" s="7">
         <f t="shared" si="2"/>
         <v>0.4628174586162454</v>
       </c>
-      <c r="I30" s="9">
+      <c r="I30" s="7">
         <f t="shared" si="2"/>
         <v>0.64660652641308847</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="7">
         <f t="shared" si="2"/>
         <v>0.81480058910140707</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="16"/>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="13"/>
+      <c r="C33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="22"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="17" t="s">
+      <c r="A34" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="23">
+      <c r="B34" s="14"/>
+      <c r="C34" s="19">
         <v>500</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="23">
+      <c r="D34" s="19"/>
+      <c r="E34" s="19">
         <v>1000</v>
       </c>
-      <c r="F34" s="24"/>
-      <c r="G34" s="23">
+      <c r="F34" s="19"/>
+      <c r="G34" s="19">
         <v>1500</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="23">
+      <c r="H34" s="19"/>
+      <c r="I34" s="19">
         <v>2000</v>
       </c>
-      <c r="J34" s="24"/>
+      <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="25">
+      <c r="B35" s="15"/>
+      <c r="C35" s="20">
         <f>C27/G27</f>
         <v>7.3807947019867539</v>
       </c>
-      <c r="D35" s="26"/>
-      <c r="E35" s="25">
+      <c r="D35" s="20"/>
+      <c r="E35" s="20">
         <f>D27/H27</f>
         <v>8.4435299497027874</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="25">
+      <c r="F35" s="20"/>
+      <c r="G35" s="20">
         <f>E27/I27</f>
         <v>9.2601569713758085</v>
       </c>
-      <c r="H35" s="26"/>
-      <c r="I35" s="25">
+      <c r="H35" s="20"/>
+      <c r="I35" s="20">
         <f>F27/J27</f>
         <v>10.191562634524322</v>
       </c>
-      <c r="J35" s="26"/>
+      <c r="J35" s="20"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12"/>
-      <c r="C36" s="25">
+      <c r="B36" s="15"/>
+      <c r="C36" s="20">
         <f t="shared" ref="C36:C37" si="3">C28/G28</f>
         <v>12.366782006920413</v>
       </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="25">
+      <c r="D36" s="20"/>
+      <c r="E36" s="20">
         <f t="shared" ref="E36:E37" si="4">D28/H28</f>
         <v>13.394957983193276</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="25">
+      <c r="F36" s="20"/>
+      <c r="G36" s="20">
         <f t="shared" ref="G36:G38" si="5">E28/I28</f>
         <v>15.170294187993299</v>
       </c>
-      <c r="H36" s="26"/>
-      <c r="I36" s="25">
+      <c r="H36" s="20"/>
+      <c r="I36" s="20">
         <f t="shared" ref="I36:I38" si="6">F28/J28</f>
         <v>16.921976201235125</v>
       </c>
-      <c r="J36" s="26"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="11"/>
-      <c r="C37" s="25">
+      <c r="C37" s="20">
         <f t="shared" si="3"/>
         <v>2.7167618044257682</v>
       </c>
-      <c r="D37" s="26"/>
-      <c r="E37" s="25">
+      <c r="D37" s="20"/>
+      <c r="E37" s="20">
         <f t="shared" si="4"/>
         <v>2.9057752751551158</v>
       </c>
-      <c r="F37" s="26"/>
-      <c r="G37" s="25">
+      <c r="F37" s="20"/>
+      <c r="G37" s="20">
         <f t="shared" si="5"/>
         <v>3.0430506028286497</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="25">
+      <c r="H37" s="20"/>
+      <c r="I37" s="20">
         <f t="shared" si="6"/>
         <v>3.1924226904538067</v>
       </c>
-      <c r="J37" s="26"/>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B38" s="11"/>
-      <c r="C38" s="25">
+      <c r="C38" s="20">
         <f>C30/G30</f>
         <v>3.5166435712082644</v>
       </c>
-      <c r="D38" s="26"/>
-      <c r="E38" s="25">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20">
         <f>D30/H30</f>
         <v>3.6599122917350462</v>
       </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="25">
+      <c r="F38" s="20"/>
+      <c r="G38" s="20">
         <f t="shared" si="5"/>
         <v>3.8949061847486517</v>
       </c>
-      <c r="H38" s="26"/>
-      <c r="I38" s="25">
+      <c r="H38" s="20"/>
+      <c r="I38" s="20">
         <f t="shared" si="6"/>
         <v>4.1136329687072388</v>
       </c>
-      <c r="J38" s="26"/>
+      <c r="J38" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:J24"/>
+    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A31:J32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="A37:B37"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="C33:J33"/>
@@ -6781,27 +6716,13 @@
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="E38:F38"/>
     <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A31:J32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:J24"/>
-    <mergeCell ref="A13:A22"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
